--- a/Design/设备释放流程分析.xlsx
+++ b/Design/设备释放流程分析.xlsx
@@ -3742,6 +3742,58 @@
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="75" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="1504950" y="4191000"/>
+          <a:ext cx="2438400" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -4054,8 +4106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="Q64" sqref="Q64"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/Design/设备释放流程分析.xlsx
+++ b/Design/设备释放流程分析.xlsx
@@ -15,7 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,6 +29,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -55,10 +66,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -68,8 +80,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2394,16 +2407,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2412,7 +2425,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8810624" y="10210800"/>
+          <a:off x="11525249" y="9086850"/>
           <a:ext cx="1971675" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2488,29 +2501,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="138" name="直接箭头连接符 137"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="133" idx="2"/>
-          <a:endCxn id="137" idx="0"/>
+          <a:stCxn id="133" idx="3"/>
+          <a:endCxn id="137" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9536906" y="9951244"/>
-          <a:ext cx="514350" cy="4762"/>
+        <a:xfrm flipV="1">
+          <a:off x="10591800" y="9386888"/>
+          <a:ext cx="933449" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2539,13 +2552,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
+      <xdr:colOff>581024</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
+      <xdr:colOff>495299</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -2556,7 +2569,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8820149" y="11268075"/>
+          <a:off x="8810624" y="11268075"/>
           <a:ext cx="1971675" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2594,28 +2607,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>195261</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>204786</xdr:colOff>
+      <xdr:colOff>195263</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="143" name="直接箭头连接符 142"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="137" idx="2"/>
+          <a:stCxn id="133" idx="2"/>
           <a:endCxn id="142" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9572624" y="11034712"/>
-          <a:ext cx="457200" cy="9525"/>
+          <a:off x="9008269" y="10479881"/>
+          <a:ext cx="1571625" cy="4762"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2707,13 +2720,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
+      <xdr:colOff>80964</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>82551</xdr:rowOff>
     </xdr:to>
@@ -2727,8 +2740,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="7624763" y="11568113"/>
-          <a:ext cx="1195386" cy="1588"/>
+          <a:off x="7624764" y="11568113"/>
+          <a:ext cx="1185861" cy="1588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3339,16 +3352,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>647701</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>552452</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3357,7 +3370,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10848977" y="12563475"/>
+          <a:off x="12211052" y="11087100"/>
           <a:ext cx="1457324" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3395,15 +3408,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>271465</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>561978</xdr:colOff>
+      <xdr:colOff>271464</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552452</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3415,8 +3428,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="9872665" y="12863512"/>
-          <a:ext cx="976313" cy="833437"/>
+          <a:off x="9872664" y="11387138"/>
+          <a:ext cx="2338388" cy="2309812"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -3444,32 +3457,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>604839</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>595315</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="191" name="直接箭头连接符 189"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="188" idx="0"/>
-          <a:endCxn id="133" idx="3"/>
+          <a:endCxn id="133" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="9501189" y="10487024"/>
-          <a:ext cx="3167062" cy="985839"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
+          <a:off x="10370345" y="8517731"/>
+          <a:ext cx="1990725" cy="3148014"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 111483"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -3766,14 +3781,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -3782,17 +3797,18 @@
         <xdr:cNvPr id="62" name="直接箭头连接符 13"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="0"/>
-          <a:endCxn id="75" idx="2"/>
+          <a:endCxn id="75" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="1504950" y="4191000"/>
-          <a:ext cx="2438400" cy="2800350"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
+          <a:off x="954882" y="3640932"/>
+          <a:ext cx="2738437" cy="3600450"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 44522"/>
+            <a:gd name="adj2" fmla="val 106349"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -4106,8 +4122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="E52" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/Design/设备释放流程分析.xlsx
+++ b/Design/设备释放流程分析.xlsx
@@ -4,21 +4,661 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="285" windowWidth="21120" windowHeight="10995"/>
+    <workbookView xWindow="360" yWindow="285" windowWidth="21120" windowHeight="10995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="超时检测算法" sheetId="2" r:id="rId2"/>
+    <sheet name="兴趣匹配算法" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+  <si>
+    <t>Label1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label2</t>
+  </si>
+  <si>
+    <t>Label3</t>
+  </si>
+  <si>
+    <t>Label4</t>
+  </si>
+  <si>
+    <t>Label5</t>
+  </si>
+  <si>
+    <t>Label6</t>
+  </si>
+  <si>
+    <t>Label7</t>
+  </si>
+  <si>
+    <t>Device2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配之前的标签设备映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配之后的标签设备映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actioni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actionj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actionk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actionl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actionm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actionx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionQueue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类别说明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>DeviceWrapper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动到设备链表的最后</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>InactivityCheckTimer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定时产生</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查超时设备，并激发设备释放流程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务逻辑导致需要删除某个设备</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除设备链表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>DeviceWrapper</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DeviceWrapper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收到客户端发来的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ping</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将各个触发事件封装成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ActionQueue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中，包括：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DeviceWrapper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的事件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>超时检测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>InactivityCheckTimer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触发超时检测</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时检测相关算法说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务逻辑驱动，需要删除某个设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>独立线程逐个执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ActionQueue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PingAction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>DeviceWrapper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动到设备链表的最后</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CheckAction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：从设备链表的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Head</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开始，逐个比较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间，如果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间已经超时，启动设备释放流程并继续下一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。否则，退出执行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DeleteAction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：从设备链表中删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>DeviceWrapper</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,8 +682,83 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -56,8 +771,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -65,19 +798,245 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1968,16 +2927,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1986,7 +2945,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4229100" y="8877300"/>
+          <a:off x="1609725" y="8629650"/>
           <a:ext cx="3857625" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2244,16 +3203,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>671512</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2264,9 +3223,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5422106" y="8141493"/>
-          <a:ext cx="1466850" cy="4763"/>
+        <a:xfrm rot="5400000">
+          <a:off x="4236244" y="6712744"/>
+          <a:ext cx="1219200" cy="2614612"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2294,16 +3253,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2312,7 +3271,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8991600" y="9096375"/>
+          <a:off x="8153400" y="12449175"/>
           <a:ext cx="1600200" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2357,16 +3316,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>139701</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2378,8 +3337,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8086725" y="9396413"/>
-          <a:ext cx="904875" cy="1588"/>
+          <a:off x="5467350" y="9148763"/>
+          <a:ext cx="2686050" cy="3600450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2407,16 +3366,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2425,7 +3384,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11525249" y="9086850"/>
+          <a:off x="10677524" y="11791950"/>
           <a:ext cx="1971675" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2501,16 +3460,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2522,8 +3481,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10591800" y="9386888"/>
-          <a:ext cx="933449" cy="9525"/>
+          <a:off x="9753600" y="12091988"/>
+          <a:ext cx="923924" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2551,15 +3510,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2569,7 +3528,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8810624" y="11268075"/>
+          <a:off x="7134224" y="13496925"/>
           <a:ext cx="1971675" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2606,15 +3565,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>195263</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2626,9 +3585,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9008269" y="10479881"/>
-          <a:ext cx="1571625" cy="4762"/>
+        <a:xfrm rot="5400000">
+          <a:off x="8312944" y="12856368"/>
+          <a:ext cx="447675" cy="833438"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2656,15 +3615,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>538163</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:colOff>461963</xdr:colOff>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2674,7 +3633,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6024563" y="11268075"/>
+          <a:off x="4348163" y="13496925"/>
           <a:ext cx="1600200" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2719,15 +3678,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>80964</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>461964</xdr:colOff>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>82551</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2740,7 +3699,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="7624764" y="11568113"/>
+          <a:off x="5948364" y="13796963"/>
           <a:ext cx="1185861" cy="1588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2769,15 +3728,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2787,7 +3746,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5476876" y="12515850"/>
+          <a:off x="3800476" y="14744700"/>
           <a:ext cx="2695574" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2870,15 +3829,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>651669</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>346869</xdr:colOff>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>38894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>653257</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>348457</xdr:colOff>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>794</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2888,7 +3847,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6500813" y="12192000"/>
+          <a:off x="4824413" y="14420850"/>
           <a:ext cx="647700" cy="1588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2917,15 +3876,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2935,7 +3894,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5829301" y="13611225"/>
+          <a:off x="4152901" y="15840075"/>
           <a:ext cx="1971675" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2979,15 +3938,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>642145</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>337345</xdr:colOff>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>153194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>643733</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>338933</xdr:colOff>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>115094</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3000,7 +3959,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6577014" y="14449425"/>
+          <a:off x="4900614" y="16678275"/>
           <a:ext cx="476250" cy="1588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3029,15 +3988,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3047,7 +4006,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5829301" y="14687550"/>
+          <a:off x="4152901" y="16916400"/>
           <a:ext cx="1971675" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3084,15 +4043,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609602</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>228602</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3102,7 +4061,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9144002" y="13696950"/>
+          <a:off x="7467602" y="15925800"/>
           <a:ext cx="1457324" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3139,15 +4098,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228602</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609602</xdr:colOff>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3160,7 +4119,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7800976" y="13996988"/>
+          <a:off x="6124576" y="16225838"/>
           <a:ext cx="1343026" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3189,15 +4148,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3207,7 +4166,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9163051" y="14744700"/>
+          <a:off x="7486651" y="16973550"/>
           <a:ext cx="1552573" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3252,15 +4211,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3273,7 +4232,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7800976" y="14987588"/>
+          <a:off x="6124576" y="17216438"/>
           <a:ext cx="1362075" cy="57150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3302,15 +4261,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>23814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228602</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609602</xdr:colOff>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>109539</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3323,7 +4282,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="7800976" y="13911264"/>
+          <a:off x="6124576" y="16140114"/>
           <a:ext cx="1343026" cy="85725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3352,15 +4311,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247652</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>552452</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3370,7 +4329,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12211052" y="11087100"/>
+          <a:off x="10534652" y="13315950"/>
           <a:ext cx="1457324" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3407,15 +4366,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>271464</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>652464</xdr:colOff>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>552452</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247652</xdr:colOff>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3428,7 +4387,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="9872664" y="11387138"/>
+          <a:off x="8196264" y="13615988"/>
           <a:ext cx="2338388" cy="2309812"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
@@ -3457,15 +4416,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>595315</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>290515</xdr:colOff>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3478,12 +4437,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="10370345" y="8517731"/>
-          <a:ext cx="1990725" cy="3148014"/>
+          <a:off x="9675020" y="11727656"/>
+          <a:ext cx="866775" cy="2309814"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 111483"/>
+            <a:gd name="adj1" fmla="val 126374"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3509,16 +4468,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>142877</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295277</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3527,7 +4486,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9058277" y="7572375"/>
+          <a:off x="11953877" y="10287000"/>
           <a:ext cx="1457324" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3568,16 +4527,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>185739</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3588,9 +4547,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9327357" y="8632031"/>
-          <a:ext cx="923925" cy="4761"/>
+        <a:xfrm rot="5400000">
+          <a:off x="10036970" y="9803606"/>
+          <a:ext cx="1562100" cy="3729039"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3618,15 +4577,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161927</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>466727</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3636,7 +4595,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11439527" y="13696950"/>
+          <a:off x="9763127" y="15925800"/>
           <a:ext cx="1457324" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3681,15 +4640,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>466727</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161927</xdr:colOff>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>111126</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3702,7 +4661,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10601326" y="13996988"/>
+          <a:off x="8924926" y="16225838"/>
           <a:ext cx="838201" cy="1588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3731,15 +4690,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>642939</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>652463</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3752,7 +4711,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6572251" y="13358813"/>
+          <a:off x="4895851" y="15587663"/>
           <a:ext cx="495300" cy="9524"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3830,6 +4789,5448 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="矩形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="15554325"/>
+          <a:ext cx="990600" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>评价并继续</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直接箭头连接符 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="3"/>
+          <a:endCxn id="161" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="15854363"/>
+          <a:ext cx="1295401" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="矩形 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582400" y="8810626"/>
+          <a:ext cx="800100" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Offline</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>655574</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="矩形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9248774" y="7610476"/>
+          <a:ext cx="1008000" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Init</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>655574</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="矩形 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9248774" y="8477251"/>
+          <a:ext cx="1008000" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Idle</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>74549</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="矩形 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981949" y="9458326"/>
+          <a:ext cx="1008000" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>MatchCache</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>655574</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="矩形 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9248774" y="10220326"/>
+          <a:ext cx="1008000" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>WaitMatch</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>655574</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="矩形 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9248774" y="11153776"/>
+          <a:ext cx="1008000" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SessionBound</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152437</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直接箭头连接符 84"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="77" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9515080" y="7371919"/>
+          <a:ext cx="476251" cy="862"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>150781</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>86519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152369</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76994</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直接箭头连接符 87"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="2"/>
+          <a:endCxn id="78" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9500362" y="8224838"/>
+          <a:ext cx="504825" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514352</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直接箭头连接符 116"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8801101" y="8877303"/>
+          <a:ext cx="628651" cy="552449"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>256349</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直接箭头连接符 119"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="2"/>
+          <a:endCxn id="81" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8576849" y="9729375"/>
+          <a:ext cx="581025" cy="762825"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>150780</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>124620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152368</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>10320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="直接箭头连接符 122"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="2"/>
+          <a:endCxn id="82" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9467024" y="10868026"/>
+          <a:ext cx="571500" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="TextBox 125"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9801225" y="8096250"/>
+          <a:ext cx="647700" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" rIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>同步</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="TextBox 126"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8905875" y="8991600"/>
+          <a:ext cx="647700" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" rIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>进入业务</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="TextBox 127"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="10086975"/>
+          <a:ext cx="647700" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" rIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>请求匹配</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="TextBox 128"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9820275" y="10782300"/>
+          <a:ext cx="647700" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" rIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>匹配</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="1"/>
+          <a:endCxn id="80" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7981950" y="9639301"/>
+          <a:ext cx="1266825" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 118045"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="TextBox 133"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8029575" y="11020425"/>
+          <a:ext cx="647700" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" rIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>评价并继续</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>655574</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>657162</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="3"/>
+          <a:endCxn id="78" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10256774" y="8658226"/>
+          <a:ext cx="1588" cy="2676525"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 14395466"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="TextBox 140"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086975" y="9001125"/>
+          <a:ext cx="647700" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" rIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>评价并退出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>256348</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333373</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="0"/>
+          <a:endCxn id="78" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="8467311" y="8676864"/>
+          <a:ext cx="800100" cy="762825"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="TextBox 152"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210550" y="8772525"/>
+          <a:ext cx="647700" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" rIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>退出业务</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>150781</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>96045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152369</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>105570</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="直接箭头连接符 156"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="0"/>
+          <a:endCxn id="78" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="9062212" y="9529764"/>
+          <a:ext cx="1381125" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="TextBox 161"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9467850" y="9801225"/>
+          <a:ext cx="647700" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" rIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>退出业务</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>655574</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="3"/>
+          <a:endCxn id="74" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10256774" y="7791451"/>
+          <a:ext cx="1325626" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>655574</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="78" idx="3"/>
+          <a:endCxn id="74" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10256774" y="8658226"/>
+          <a:ext cx="1325626" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>655574</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="3"/>
+          <a:endCxn id="74" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10256774" y="8991601"/>
+          <a:ext cx="1325626" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>655574</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="176" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="3"/>
+          <a:endCxn id="74" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10256774" y="8991601"/>
+          <a:ext cx="1325626" cy="2343150"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>74549</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="181" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="3"/>
+          <a:endCxn id="74" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8989949" y="8991601"/>
+          <a:ext cx="2592451" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 72780"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009651" y="704850"/>
+          <a:ext cx="857249" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Device_a</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009651" y="1819275"/>
+          <a:ext cx="857249" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Device_b</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009651" y="2752725"/>
+          <a:ext cx="857249" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Device_c</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="曲线连接符 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="919163"/>
+          <a:ext cx="1152525" cy="500062"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="866775"/>
+          <a:ext cx="676275" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OnPing</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800">
+            <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="曲线连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1866900" y="1609725"/>
+          <a:ext cx="1143000" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="曲线连接符 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1866900" y="2286000"/>
+          <a:ext cx="1123950" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="曲线连接符 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1866900" y="2771775"/>
+          <a:ext cx="1143000" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="1447800"/>
+          <a:ext cx="676275" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OnPing</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800">
+            <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="2200275"/>
+          <a:ext cx="676275" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OnPing</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800">
+            <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="2933700"/>
+          <a:ext cx="695325" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OnPing</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762626" y="1933575"/>
+          <a:ext cx="981074" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>InactivityCheckTimer</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="曲线连接符 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4610100" y="2147888"/>
+          <a:ext cx="1152526" cy="404812"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1600207</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66677</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="曲线连接符 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4600582" y="2147888"/>
+          <a:ext cx="1162045" cy="1071562"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185739</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="曲线连接符 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4610100" y="1857380"/>
+          <a:ext cx="1152526" cy="290509"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185739</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="曲线连接符 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4600575" y="3000380"/>
+          <a:ext cx="1152526" cy="290509"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="TextBox 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762626" y="3067050"/>
+          <a:ext cx="981074" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>删除设备</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="63" name="组合 62"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1743075" y="4714875"/>
+          <a:ext cx="971549" cy="876299"/>
+          <a:chOff x="2257425" y="4800600"/>
+          <a:chExt cx="971549" cy="876299"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="TextBox 60"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="4800600"/>
+            <a:ext cx="971549" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>PreDevice</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="TextBox 57"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="5010150"/>
+            <a:ext cx="971549" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050"/>
+              <a:t>DeviceWrapper1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>Head </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="TextBox 61"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="5467350"/>
+            <a:ext cx="971549" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>NextDevice</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>223837</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="曲线连接符 64"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="77" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1343025" y="4819649"/>
+          <a:ext cx="400050" cy="347663"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952499</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="66" name="组合 65"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3238500" y="4724400"/>
+          <a:ext cx="971549" cy="876299"/>
+          <a:chOff x="2257425" y="4800600"/>
+          <a:chExt cx="971549" cy="876299"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="TextBox 66"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="4800600"/>
+            <a:ext cx="971549" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>PreDevice</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="TextBox 67"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="5010150"/>
+            <a:ext cx="971549" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>DeviceWrapper2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="TextBox 68"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="5467350"/>
+            <a:ext cx="971549" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>NextDevice</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="曲线连接符 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2714624" y="5162550"/>
+          <a:ext cx="523876" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="曲线连接符 72"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2714624" y="4829175"/>
+          <a:ext cx="523876" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="TextBox 76"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="5010150"/>
+          <a:ext cx="476250" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Null</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="82" name="组合 81"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4667250" y="4724400"/>
+          <a:ext cx="971549" cy="876299"/>
+          <a:chOff x="2257425" y="4800600"/>
+          <a:chExt cx="971549" cy="876299"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="TextBox 82"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="4800600"/>
+            <a:ext cx="971549" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>PreDevice</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="TextBox 83"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="5010150"/>
+            <a:ext cx="971549" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>Device</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Wrapper</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="TextBox 84"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="5467350"/>
+            <a:ext cx="971549" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>NextDevice</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1409701</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="曲线连接符 85"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4210050" y="4829174"/>
+          <a:ext cx="457201" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="曲线连接符 88"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7286624" y="5162550"/>
+          <a:ext cx="457201" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="TextBox 91"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667376" y="5000625"/>
+          <a:ext cx="342900" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="93" name="组合 92"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6315075" y="4724400"/>
+          <a:ext cx="971549" cy="876299"/>
+          <a:chOff x="2257425" y="4800600"/>
+          <a:chExt cx="971549" cy="876299"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="TextBox 93"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="4800600"/>
+            <a:ext cx="971549" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>PreDevice</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="TextBox 94"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="5010150"/>
+            <a:ext cx="971549" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>Device</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Wrapper</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>x</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="TextBox 95"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="5467350"/>
+            <a:ext cx="971549" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>NextDevice</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="97" name="组合 96"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7743825" y="4724400"/>
+          <a:ext cx="971549" cy="876299"/>
+          <a:chOff x="2257425" y="4800600"/>
+          <a:chExt cx="971549" cy="876299"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="TextBox 97"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="4800600"/>
+            <a:ext cx="971549" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>PreDevice</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="TextBox 98"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="5010150"/>
+            <a:ext cx="971549" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>Tail</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="TextBox 99"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="5467350"/>
+            <a:ext cx="971549" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>NextDevice</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="曲线连接符 100"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="102" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8715374" y="5176838"/>
+          <a:ext cx="533401" cy="319087"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="TextBox 101"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9248775" y="5019675"/>
+          <a:ext cx="476250" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Null</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="曲线连接符 104"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7286625" y="4829174"/>
+          <a:ext cx="457201" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952499</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="曲线连接符 109"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4210049" y="5162550"/>
+          <a:ext cx="457201" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57152</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="曲线连接符 112"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="92" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6010277" y="4829174"/>
+          <a:ext cx="304799" cy="328613"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6038850" y="2305050"/>
+          <a:ext cx="1304925" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Device4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>- Label3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>- Label1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>- Label6</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>195264</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="形状 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6691314" y="1276350"/>
+          <a:ext cx="1404937" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="1085849"/>
+          <a:ext cx="962025" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Device4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>请求</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>MatchStart</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>140925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="七角星 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="1114425"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="star7">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="形状 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4438652" y="2505077"/>
+          <a:ext cx="1600198" cy="266698"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>550500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>321900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="七角星 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="2628900"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="star7">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" tIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4981575" y="2838449"/>
+          <a:ext cx="1095375" cy="1314451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>根据</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Device4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>兴趣标签的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>LabelOrder</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>，依次查找是否有共同兴趣标签的设备</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="七角星 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3629025" y="5057775"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="star7">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" tIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="4924425"/>
+          <a:ext cx="1828800" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>根据</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Label3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>查找到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Device3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>，并将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Device3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>从标签设备映射中删除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27781</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>153194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>29369</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86519</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="形状 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2990850" y="5286375"/>
+          <a:ext cx="933450" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="5057775"/>
+          <a:ext cx="1000125" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Device3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Device4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>195263</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="形状 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6081713" y="3848099"/>
+          <a:ext cx="1819275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="形状 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5753100" y="5348288"/>
+          <a:ext cx="1038225" cy="1157287"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>340950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>255225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="七角星 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="3895725"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="star7">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" tIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505700" y="3876675"/>
+          <a:ext cx="1828800" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>保存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Device3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Device4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为匹配设备对</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800">
+            <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="5057775"/>
+          <a:ext cx="1000125" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Devicei</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Devicej</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943850" y="5229225"/>
+          <a:ext cx="304800" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>274275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>312375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="七角星 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7096125" y="5953125"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="star7">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" tIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="TextBox 37"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="5934075"/>
+          <a:ext cx="1828800" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>独立线程依次通知各个设备对</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SessionBound</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>消息</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800">
+            <a:latin typeface="Verdana" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="TextBox 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="6267450"/>
+          <a:ext cx="1000125" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Device3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4122,8 +10523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E52" workbookViewId="0">
-      <selection activeCell="M78" sqref="M78"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4137,4 +10538,431 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B5:L45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="6.625" style="11"/>
+    <col min="3" max="3" width="10" style="11" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="11"/>
+    <col min="5" max="5" width="6.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="11"/>
+    <col min="7" max="7" width="21.125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="6.625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="7:7" ht="28.5" customHeight="1">
+      <c r="G5" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="7:7">
+      <c r="G6" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="7:7">
+      <c r="G8" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="18.75">
+      <c r="D19" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="C28" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="C29" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="C30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="C31" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="3:12">
+      <c r="C32" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="C35" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="27"/>
+      <c r="C37" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="27"/>
+      <c r="C38" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="27"/>
+      <c r="C39" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="27"/>
+      <c r="C41" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="27"/>
+      <c r="C42" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="28"/>
+      <c r="C43" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="28"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:L29"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C6:I24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="26.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:6" ht="26.25" customHeight="1">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="3:6" ht="26.25" customHeight="1" thickBot="1">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="26.25" customHeight="1">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="26.25" customHeight="1">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="26.25" customHeight="1">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="26.25" customHeight="1">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="26.25" customHeight="1">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="26.25" customHeight="1">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="26.25" customHeight="1" thickBot="1">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="26.25" customHeight="1">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="3:6" ht="26.25" customHeight="1">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="3:9" ht="26.25" customHeight="1">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="3:9" ht="26.25" customHeight="1">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="26.25" customHeight="1">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="3:9" ht="26.25" customHeight="1">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="3:9" ht="26.25" customHeight="1">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="26.25" customHeight="1" thickBot="1">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="26.25" customHeight="1">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="3:9" ht="26.25" customHeight="1">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>